--- a/input.xlsx
+++ b/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info\Python\aci\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>VLAN Number</t>
   </si>
@@ -42,24 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>11.11.11.1/24</t>
-  </si>
-  <si>
-    <t>21.11.11.1/25</t>
-  </si>
-  <si>
-    <t>31.11.11.1/26</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
   </si>
 </sst>
 </file>
@@ -381,7 +363,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,39 +392,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3333</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
